--- a/data/trans_orig/P14B12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B12-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D67A61-424B-42C0-AAF2-FE47DEFF91C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A4B53B1-3854-4D67-BFB0-1D1C7DED0CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3289E6DD-320E-4240-9610-43599568DE80}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3BBE31B-76A2-422C-826F-7FEB7039D34B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="249">
   <si>
     <t>Población cuya angina de pecho le limita en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -133,7 +133,7 @@
     <t>69,63%</t>
   </si>
   <si>
-    <t>33,79%</t>
+    <t>17,63%</t>
   </si>
   <si>
     <t>57,27%</t>
@@ -148,16 +148,16 @@
     <t>62,78%</t>
   </si>
   <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>66,21%</t>
+    <t>82,37%</t>
   </si>
   <si>
     <t>42,73%</t>
@@ -172,10 +172,10 @@
     <t>37,22%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -187,12 +187,18 @@
     <t>53,33%</t>
   </si>
   <si>
+    <t>90,06%</t>
+  </si>
+  <si>
     <t>37,16%</t>
   </si>
   <si>
     <t>46,67%</t>
   </si>
   <si>
+    <t>9,94%</t>
+  </si>
+  <si>
     <t>Jaen</t>
   </si>
   <si>
@@ -208,7 +214,7 @@
     <t>80,76%</t>
   </si>
   <si>
-    <t>20,94%</t>
+    <t>20,38%</t>
   </si>
   <si>
     <t>76,84%</t>
@@ -217,13 +223,13 @@
     <t>78,92%</t>
   </si>
   <si>
-    <t>45,01%</t>
+    <t>44,62%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>79,06%</t>
+    <t>79,62%</t>
   </si>
   <si>
     <t>23,16%</t>
@@ -232,7 +238,7 @@
     <t>21,08%</t>
   </si>
   <si>
-    <t>54,99%</t>
+    <t>55,38%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -244,7 +250,7 @@
     <t>84,92%</t>
   </si>
   <si>
-    <t>39,89%</t>
+    <t>38,87%</t>
   </si>
   <si>
     <t>26,26%</t>
@@ -253,16 +259,16 @@
     <t>15,08%</t>
   </si>
   <si>
-    <t>60,11%</t>
+    <t>61,13%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>65,68%</t>
@@ -277,16 +283,19 @@
     <t>71,38%</t>
   </si>
   <si>
-    <t>82,98%</t>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
   </si>
   <si>
     <t>34,32%</t>
@@ -301,7 +310,10 @@
     <t>28,62%</t>
   </si>
   <si>
-    <t>17,02%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -328,10 +340,10 @@
     <t>51,14%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
   </si>
   <si>
     <t>39,78%</t>
@@ -346,10 +358,10 @@
     <t>48,86%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -403,34 +415,34 @@
     <t>82,33%</t>
   </si>
   <si>
-    <t>31,14%</t>
+    <t>31,0%</t>
   </si>
   <si>
     <t>88,74%</t>
   </si>
   <si>
-    <t>47,52%</t>
+    <t>51,81%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>68,86%</t>
+    <t>69,0%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>52,48%</t>
+    <t>48,19%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>77,92%</t>
@@ -445,19 +457,19 @@
     <t>79,8%</t>
   </si>
   <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
   </si>
   <si>
     <t>22,08%</t>
@@ -472,10 +484,10 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>Población cuya angina de pecho le limita en 2023 (Tasa respuesta: 0,9%)</t>
@@ -502,10 +514,10 @@
     <t>58,96%</t>
   </si>
   <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>51,7%</t>
@@ -517,16 +529,16 @@
     <t>41,04%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>46,55%</t>
+    <t>33,77%</t>
   </si>
   <si>
     <t>68,95%</t>
@@ -538,16 +550,16 @@
     <t>75,95%</t>
   </si>
   <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>53,45%</t>
+    <t>66,23%</t>
   </si>
   <si>
     <t>31,05%</t>
@@ -559,34 +571,34 @@
     <t>24,05%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
   </si>
   <si>
     <t>90,64%</t>
   </si>
   <si>
-    <t>48,53%</t>
+    <t>54,76%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>53,07%</t>
+    <t>60,79%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>51,47%</t>
+    <t>45,24%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>46,93%</t>
+    <t>39,21%</t>
   </si>
   <si>
     <t>44,6%</t>
@@ -607,10 +619,10 @@
     <t>69,2%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>43,68%</t>
@@ -625,10 +637,10 @@
     <t>30,8%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
   </si>
   <si>
     <t>61,66%</t>
@@ -637,7 +649,7 @@
     <t>19,52%</t>
   </si>
   <si>
-    <t>89,28%</t>
+    <t>89,14%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -646,16 +658,16 @@
     <t>76,81%</t>
   </si>
   <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>10,72%</t>
+    <t>10,86%</t>
   </si>
   <si>
     <t>80,48%</t>
@@ -667,10 +679,10 @@
     <t>23,19%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
   </si>
   <si>
     <t>78,03%</t>
@@ -691,10 +703,10 @@
     <t>57,56%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>21,97%</t>
@@ -715,10 +727,10 @@
     <t>42,44%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
   </si>
   <si>
     <t>69,47%</t>
@@ -727,31 +739,31 @@
     <t>53,36%</t>
   </si>
   <si>
-    <t>83,15%</t>
+    <t>82,84%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>30,53%</t>
   </si>
   <si>
-    <t>16,85%</t>
+    <t>17,16%</t>
   </si>
   <si>
     <t>46,64%</t>
@@ -760,19 +772,19 @@
     <t>27,74%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939DCB59-8890-45A2-8655-551913965E50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31292B69-3143-4ACA-85A3-624215256055}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1940,7 +1952,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,7 +1967,7 @@
         <v>2066</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>18</v>
@@ -1985,10 +1997,10 @@
         <v>3057</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>14</v>
@@ -2047,7 +2059,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2075,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -2090,7 +2102,7 @@
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -2127,7 +2139,7 @@
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2142,7 +2154,7 @@
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,7 +2208,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2208,10 +2220,10 @@
         <v>4124</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -2223,7 +2235,7 @@
         <v>3466</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
@@ -2238,10 +2250,10 @@
         <v>7589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -2259,13 +2271,13 @@
         <v>982</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2274,7 +2286,7 @@
         <v>1044</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>18</v>
@@ -2289,13 +2301,13 @@
         <v>2027</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,7 +2363,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2366,7 +2378,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -2378,7 +2390,7 @@
         <v>3259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>18</v>
@@ -2393,10 +2405,10 @@
         <v>6534</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -2420,7 +2432,7 @@
         <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2429,7 +2441,7 @@
         <v>1160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>18</v>
@@ -2444,13 +2456,13 @@
         <v>1160</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2530,13 @@
         <v>17060</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -2533,13 +2545,13 @@
         <v>16273</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -2548,13 +2560,13 @@
         <v>33334</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2581,13 @@
         <v>4857</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2584,13 +2596,13 @@
         <v>8505</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -2599,13 +2611,13 @@
         <v>13362</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,7 +2673,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CFDA68-8298-433A-A505-39C98B56A27F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F815D9-8BFA-4325-937C-96A6A37E932D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2702,7 +2714,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2839,7 +2851,7 @@
         <v>1302</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>18</v>
@@ -2890,7 +2902,7 @@
         <v>1018</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>18</v>
@@ -2964,10 +2976,10 @@
         <v>3076</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -2979,7 +2991,7 @@
         <v>1169</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>18</v>
@@ -2994,13 +3006,13 @@
         <v>4245</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3027,13 @@
         <v>2031</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3030,7 +3042,7 @@
         <v>2023</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>18</v>
@@ -3045,13 +3057,13 @@
         <v>4055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,7 +3283,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3286,7 +3298,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3301,7 +3313,7 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -3325,7 +3337,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3340,7 +3352,7 @@
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3355,7 +3367,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,7 +3572,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3709,7 +3721,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3721,10 +3733,10 @@
         <v>4034</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -3736,10 +3748,10 @@
         <v>7063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -3751,10 +3763,10 @@
         <v>11097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -3772,13 +3784,13 @@
         <v>1050</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3787,13 +3799,13 @@
         <v>1194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3802,13 +3814,13 @@
         <v>2244</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,7 +3876,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3876,10 +3888,10 @@
         <v>4778</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -3894,7 +3906,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -3906,10 +3918,10 @@
         <v>8084</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -3927,13 +3939,13 @@
         <v>1026</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3948,7 +3960,7 @@
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3957,13 +3969,13 @@
         <v>1026</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4043,13 @@
         <v>21232</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -4046,13 +4058,13 @@
         <v>14947</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -4061,13 +4073,13 @@
         <v>36181</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4094,13 @@
         <v>4922</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4097,13 +4109,13 @@
         <v>4236</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -4112,13 +4124,13 @@
         <v>9157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,7 +4186,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4198,7 +4210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96871648-B00F-4C1E-BE8A-844B036DBD1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE036CD-7047-420C-B26F-E8FA50F984FF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4215,7 +4227,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4322,7 +4334,7 @@
         <v>871</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>18</v>
@@ -4352,7 +4364,7 @@
         <v>870</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>18</v>
@@ -4373,7 +4385,7 @@
         <v>672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>18</v>
@@ -4403,7 +4415,7 @@
         <v>1079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>18</v>
@@ -4477,7 +4489,7 @@
         <v>1877</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>18</v>
@@ -4492,7 +4504,7 @@
         <v>1907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>18</v>
@@ -4507,13 +4519,13 @@
         <v>3784</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,7 +4540,7 @@
         <v>2009</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>18</v>
@@ -4543,7 +4555,7 @@
         <v>625</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>18</v>
@@ -4558,13 +4570,13 @@
         <v>2634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,10 +4644,10 @@
         <v>4043</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -4647,10 +4659,10 @@
         <v>2810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -4662,13 +4674,13 @@
         <v>6853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4695,13 @@
         <v>904</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4698,13 +4710,13 @@
         <v>1266</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4713,13 +4725,13 @@
         <v>2170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,10 +4799,10 @@
         <v>5631</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -4817,10 +4829,10 @@
         <v>6077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -4838,13 +4850,13 @@
         <v>581</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4868,13 +4880,13 @@
         <v>581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,7 +4967,7 @@
         <v>351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>18</v>
@@ -4970,7 +4982,7 @@
         <v>351</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>18</v>
@@ -5004,7 +5016,7 @@
         <v>436</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>18</v>
@@ -5019,7 +5031,7 @@
         <v>436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>18</v>
@@ -5079,7 +5091,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5091,13 +5103,13 @@
         <v>2751</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5109,7 +5121,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -5121,13 +5133,13 @@
         <v>4792</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5154,13 @@
         <v>2133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5163,7 +5175,7 @@
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5172,13 +5184,13 @@
         <v>2133</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,7 +5246,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5246,13 +5258,13 @@
         <v>4301</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5264,7 +5276,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -5276,13 +5288,13 @@
         <v>8859</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5309,13 @@
         <v>2675</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5318,7 +5330,7 @@
         <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -5327,13 +5339,13 @@
         <v>2675</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,7 +5401,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5401,10 +5413,10 @@
         <v>2648</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -5416,13 +5428,13 @@
         <v>2008</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5431,13 +5443,13 @@
         <v>4656</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5464,13 @@
         <v>746</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5467,13 +5479,13 @@
         <v>2688</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -5482,13 +5494,13 @@
         <v>3434</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5568,13 @@
         <v>22122</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -5571,13 +5583,13 @@
         <v>14121</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M28" s="7">
         <v>58</v>
@@ -5586,13 +5598,13 @@
         <v>36243</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5619,13 @@
         <v>9721</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -5622,13 +5634,13 @@
         <v>5420</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -5637,13 +5649,13 @@
         <v>15141</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,7 +5711,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B12-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A4B53B1-3854-4D67-BFB0-1D1C7DED0CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37087616-1F8B-4220-BE81-4609CD364368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3BBE31B-76A2-422C-826F-7FEB7039D34B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E32C104-6F73-4161-ACCD-7C3172D3B350}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -133,49 +133,49 @@
     <t>69,63%</t>
   </si>
   <si>
-    <t>17,63%</t>
+    <t>33,58%</t>
   </si>
   <si>
     <t>57,27%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>62,78%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>82,37%</t>
+    <t>66,42%</t>
   </si>
   <si>
     <t>42,73%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
   </si>
   <si>
     <t>37,22%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -214,7 +214,7 @@
     <t>80,76%</t>
   </si>
   <si>
-    <t>20,38%</t>
+    <t>27,71%</t>
   </si>
   <si>
     <t>76,84%</t>
@@ -223,13 +223,13 @@
     <t>78,92%</t>
   </si>
   <si>
-    <t>44,62%</t>
+    <t>41,83%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>79,62%</t>
+    <t>72,29%</t>
   </si>
   <si>
     <t>23,16%</t>
@@ -238,7 +238,7 @@
     <t>21,08%</t>
   </si>
   <si>
-    <t>55,38%</t>
+    <t>58,17%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -247,79 +247,85 @@
     <t>73,74%</t>
   </si>
   <si>
+    <t>22,31%</t>
+  </si>
+  <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>38,87%</t>
+    <t>40,44%</t>
   </si>
   <si>
     <t>26,26%</t>
   </si>
   <si>
+    <t>77,69%</t>
+  </si>
+  <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>61,13%</t>
+    <t>59,56%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya angina de pecho le limita en 2015 (Tasa respuesta: 0,65%)</t>
+    <t>Población cuya angina de pecho le limita en 2016 (Tasa respuesta: 0,65%)</t>
   </si>
   <si>
     <t>56,11%</t>
@@ -340,10 +346,10 @@
     <t>51,14%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>39,78%</t>
@@ -358,10 +364,10 @@
     <t>48,86%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -385,13 +391,13 @@
     <t>85,54%</t>
   </si>
   <si>
-    <t>30,79%</t>
+    <t>37,34%</t>
   </si>
   <si>
     <t>83,18%</t>
   </si>
   <si>
-    <t>53,8%</t>
+    <t>51,65%</t>
   </si>
   <si>
     <t>20,66%</t>
@@ -403,91 +409,91 @@
     <t>14,46%</t>
   </si>
   <si>
-    <t>69,21%</t>
+    <t>62,66%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>46,2%</t>
+    <t>48,35%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>31,0%</t>
+    <t>30,84%</t>
   </si>
   <si>
     <t>88,74%</t>
   </si>
   <si>
-    <t>51,81%</t>
+    <t>43,75%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>69,0%</t>
+    <t>69,16%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>48,19%</t>
+    <t>56,25%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>77,92%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>22,08%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>Población cuya angina de pecho le limita en 2023 (Tasa respuesta: 0,9%)</t>
@@ -550,9 +556,6 @@
     <t>75,95%</t>
   </si>
   <si>
-    <t>44,13%</t>
-  </si>
-  <si>
     <t>93,15%</t>
   </si>
   <si>
@@ -572,9 +575,6 @@
   </si>
   <si>
     <t>6,85%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
   </si>
   <si>
     <t>90,64%</t>
@@ -1196,7 +1196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31292B69-3143-4ACA-85A3-624215256055}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5DC590-9FF1-4524-BB0B-C9791BB2148C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2393,7 +2393,7 @@
         <v>68</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -2405,10 +2405,10 @@
         <v>6534</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -2441,13 +2441,13 @@
         <v>1160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2456,13 +2456,13 @@
         <v>1160</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2530,13 @@
         <v>17060</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -2545,13 +2545,13 @@
         <v>16273</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -2560,13 +2560,13 @@
         <v>33334</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2581,13 @@
         <v>4857</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2596,13 +2596,13 @@
         <v>8505</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -2611,13 +2611,13 @@
         <v>13362</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,7 +2673,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F815D9-8BFA-4325-937C-96A6A37E932D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D0E345-2F95-41BF-928E-D4F6982100CD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2714,7 +2714,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2851,7 +2851,7 @@
         <v>1302</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>18</v>
@@ -2902,7 +2902,7 @@
         <v>1018</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>18</v>
@@ -2976,10 +2976,10 @@
         <v>3076</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -2991,7 +2991,7 @@
         <v>1169</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>18</v>
@@ -3006,13 +3006,13 @@
         <v>4245</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3027,13 @@
         <v>2031</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3042,7 +3042,7 @@
         <v>2023</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>18</v>
@@ -3057,13 +3057,13 @@
         <v>4055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3283,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3313,7 +3313,7 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -3337,7 +3337,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,10 +3733,10 @@
         <v>4034</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -3748,10 +3748,10 @@
         <v>7063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -3763,10 +3763,10 @@
         <v>11097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -3784,13 +3784,13 @@
         <v>1050</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3799,13 +3799,13 @@
         <v>1194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3814,13 +3814,13 @@
         <v>2244</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,10 +3888,10 @@
         <v>4778</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -3918,10 +3918,10 @@
         <v>8084</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -3939,13 +3939,13 @@
         <v>1026</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3969,13 +3969,13 @@
         <v>1026</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4043,13 @@
         <v>21232</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -4058,13 +4058,13 @@
         <v>14947</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -4073,13 +4073,13 @@
         <v>36181</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4094,13 @@
         <v>4922</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4109,13 +4109,13 @@
         <v>4236</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -4124,13 +4124,13 @@
         <v>9157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,7 +4186,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4210,7 +4210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE036CD-7047-420C-B26F-E8FA50F984FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35782D4E-55B0-4B06-AB06-8091079F60E4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4227,7 +4227,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4334,7 +4334,7 @@
         <v>871</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>18</v>
@@ -4364,7 +4364,7 @@
         <v>870</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>18</v>
@@ -4385,7 +4385,7 @@
         <v>672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>18</v>
@@ -4415,7 +4415,7 @@
         <v>1079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>18</v>
@@ -4489,7 +4489,7 @@
         <v>1877</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>18</v>
@@ -4504,7 +4504,7 @@
         <v>1907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>18</v>
@@ -4519,13 +4519,13 @@
         <v>3784</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4540,7 @@
         <v>2009</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>18</v>
@@ -4555,7 +4555,7 @@
         <v>625</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>18</v>
@@ -4570,13 +4570,13 @@
         <v>2634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,10 +4644,10 @@
         <v>4043</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -4659,10 +4659,10 @@
         <v>2810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -4674,13 +4674,13 @@
         <v>6853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4695,13 @@
         <v>904</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4710,13 +4710,13 @@
         <v>1266</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4725,13 +4725,13 @@
         <v>2170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,7 +5121,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -5175,7 +5175,7 @@
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
